--- a/Study 3/Shocks/GCAM/NDC_EI - 2095.xlsx
+++ b/Study 3/Shocks/GCAM/NDC_EI - 2095.xlsx
@@ -11482,7 +11482,7 @@
         </is>
       </c>
       <c r="H4" t="n">
-        <v>0.08749431173570674</v>
+        <v>0.08749431173570671</v>
       </c>
     </row>
     <row r="5">
@@ -11642,7 +11642,7 @@
         </is>
       </c>
       <c r="H8" t="n">
-        <v>0.06353220677517665</v>
+        <v>0.06353220677517664</v>
       </c>
     </row>
     <row r="9">
@@ -11802,7 +11802,7 @@
         </is>
       </c>
       <c r="H12" t="n">
-        <v>0.08397786235018795</v>
+        <v>0.08397786235018793</v>
       </c>
     </row>
     <row r="13">
@@ -12122,7 +12122,7 @@
         </is>
       </c>
       <c r="H20" t="n">
-        <v>0.05630604436261925</v>
+        <v>0.05630604436261924</v>
       </c>
     </row>
     <row r="21">
@@ -12282,7 +12282,7 @@
         </is>
       </c>
       <c r="H24" t="n">
-        <v>0.150970181254662</v>
+        <v>0.1509701812546619</v>
       </c>
     </row>
     <row r="25">
@@ -12602,7 +12602,7 @@
         </is>
       </c>
       <c r="H32" t="n">
-        <v>0.03389357682213452</v>
+        <v>0.03389357682213451</v>
       </c>
     </row>
     <row r="33">
@@ -12762,7 +12762,7 @@
         </is>
       </c>
       <c r="H36" t="n">
-        <v>0.2333090094868871</v>
+        <v>0.233309009486887</v>
       </c>
     </row>
     <row r="37">
